--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -31,868 +31,868 @@
     <t>version</t>
   </si>
   <si>
+    <t>Bottoms</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Joggers</t>
+  </si>
+  <si>
+    <t>XS, S, M, L, XL, XXL</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Trousers</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Dresses / Skirts</t>
+  </si>
+  <si>
+    <t>Jackets / Outerwear</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Summer Jackets</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Winter Jackets</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Bodywarmers / Sleeveless Jumpers</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Long Sleeve Tops</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>T-Shirts / Short Sleeves</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Undershirts / Tank Tops</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
     <t>Underwear / Nightwear</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Leggings</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Underwear</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Light Shoes</t>
+  </si>
+  <si>
+    <t>Shoe sizes Female</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Practical Shoes</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Sandals &amp; Flip Flops</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>UnisexBaby</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Baby Bibs</t>
+  </si>
+  <si>
+    <t>Mixed sizes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Baby Blankets</t>
+  </si>
+  <si>
     <t>Boy</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Summer Hats</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Winter Hats</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Abayas</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hijabs </t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Scarves</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Thick Socks</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Thin Socks</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>UnisexAdult</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Baby Gloves</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Baby Hats</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Baby Socks</t>
+  </si>
+  <si>
+    <t>UnisexKid</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Food &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Basins</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Bleach</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Bowls</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Canned / Jarred Food</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Dishes</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Dry Food</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Eating Utensils</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Pots &amp; pans</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Sponges</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Washing up liquid</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Wooden cooking spoons</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>ASTM 1 Masks</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTM 2 Masks </t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>ASTM 3/FFP2/FFP3/N95 Masks</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Combs, Hair Ties, Brushes</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Disposable Gloves</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Isopropryl Alcohol</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Lotion / Moisturizer</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Reusable Masks</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Shaving Foam</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Shower Gel</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Sunscreen</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Sanitary Pads</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Incontinence Pads</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Misc. Outer Protective Gear</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Backpacks</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Suitcases and Bags</t>
+  </si>
+  <si>
+    <t>Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Umbrellas</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Bedsheets</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Blankets</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Duvet Covers</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Duvets</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Pillowcases</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Pillows</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Sleeping Bags</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Sleeping Mats</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Tarps</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Tents</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Towels</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Rubber Rain Boots</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Drinking Vessels</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Water Storage Containers (&gt;20L)</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Water Storage Containers (&lt;10L)</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Water Storage Containers (10-20L)</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>One size</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Hand Sanitizer / Antibacterial Handgel</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Razors (Disposable)</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Wet Wipes / Baby Wipes</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Shoe sizes Male</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Shoe sizes children</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t>Diaper sizes</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Bras</t>
+  </si>
+  <si>
+    <t>Bra sizes</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Toothbrushes</t>
+  </si>
+  <si>
+    <t>Singlepack, Multipack</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Toothpaste</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Baby Trousers</t>
+  </si>
+  <si>
+    <t>Baby by month (0-2, 3-6, 7-12, 13-18, 19-24)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Baby Onesies</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Baby Rompers / Bodies</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Baby Jackets / Outerwear</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Baby Shoes</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Baby Jumpers</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Baby Tops</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Children by year (2-3, 4-5, 6-7, 8-9, 10-11, 12-13, 14-15)</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Leggings</t>
-  </si>
-  <si>
-    <t>Children by year (2-3, 4-5, 6-7, 8-9, 10-11, 12-13, 14-15)</t>
-  </si>
-  <si>
-    <t>Girl</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
-    <t>Underwear</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Bras</t>
-  </si>
-  <si>
-    <t>Bra sizes</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>XS, S, M, L, XL, XXL</t>
-  </si>
-  <si>
-    <t>152</t>
+    <t>153</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>Undershirts / Tank Tops</t>
-  </si>
-  <si>
     <t>155</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Bottoms</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Joggers</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Shorts</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Trousers</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>UnisexBaby</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Baby Trousers</t>
-  </si>
-  <si>
-    <t>Baby by month (0-2, 3-6, 7-12, 13-18, 19-24)</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Jumpers</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Long Sleeve Tops</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>T-Shirts / Short Sleeves</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Bodywarmers / Sleeveless Jumpers</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Baby Jumpers</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Baby Tops</t>
-  </si>
-  <si>
-    <t>UnisexKid</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Light Shoes</t>
-  </si>
-  <si>
-    <t>Shoe sizes children</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Practical Shoes</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Sandals &amp; Flip Flops</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Shoe sizes Female</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Shoe sizes Male</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>UnisexAdult</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Rubber Rain Boots</t>
-  </si>
-  <si>
-    <t>Mixed sizes</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Baby Shoes</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>Jackets / Outerwear</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Summer Jackets</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Winter Jackets</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Misc. Outer Protective Gear</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Baby Jackets / Outerwear</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Baby Bibs</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Baby Blankets</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Backpacks</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Suitcases and Bags</t>
-  </si>
-  <si>
-    <t>Hygiene</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Bleach</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>ASTM 1 Masks</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTM 2 Masks </t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>ASTM 3/FFP2/FFP3/N95 Masks</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Combs, Hair Ties, Brushes</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>One size</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Deodorant</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Disposable Gloves</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Hand Sanitizer / Antibacterial Handgel</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Isopropryl Alcohol</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Lotion / Moisturizer</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Razors (Disposable)</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Reusable Masks</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Shampoo</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Shaving Foam</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Shower Gel</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Soap</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Sunscreen</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Toothbrushes</t>
-  </si>
-  <si>
-    <t>Singlepack, Multipack</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Toothpaste</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Wet Wipes / Baby Wipes</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Sanitary Pads</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Incontinence Pads</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Diapers</t>
-  </si>
-  <si>
-    <t>Diaper sizes</t>
-  </si>
-  <si>
-    <t>Food &amp; Kitchen</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Basins</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Bowls</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Canned / Jarred Food</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Dishes</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Dry Food</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Eating Utensils</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Pots &amp; pans</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Sponges</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Washing up liquid</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Wooden cooking spoons</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Summer Hats</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Winter Hats</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Abayas</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Dresses / Skirts</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hijabs </t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Scarves</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Thick Socks</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Thin Socks</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Baby Gloves</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Baby Hats</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Baby Onesies</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Baby Rompers / Bodies</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Baby Socks</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Toys &amp; Games</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Bottled water</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Drinking Vessels</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Water Storage Containers (&gt;20L)</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Water Storage Containers (&lt;10L)</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Water Storage Containers (10-20L)</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Umbrellas</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Bedsheets</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Blankets</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Duvet Covers</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Duvets</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Pillowcases</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Pillows</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Sleeping Bags</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Sleeping Mats</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Tarps</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Tents</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Towels</t>
   </si>
 </sst>
 </file>
@@ -1317,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1363,10 +1363,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1380,13 +1380,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1400,13 +1400,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1454,19 +1454,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1474,19 +1474,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1514,16 +1514,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1534,16 +1534,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1554,19 +1554,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1574,19 +1574,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1594,19 +1594,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1614,16 +1614,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1654,19 +1654,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1674,19 +1674,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1694,19 +1694,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1714,19 +1714,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1734,16 +1734,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1806,7 +1806,7 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1814,19 +1814,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1834,19 +1834,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1874,19 +1874,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1894,19 +1894,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1914,19 +1914,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1934,19 +1934,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1954,19 +1954,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1974,19 +1974,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1994,19 +1994,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2014,19 +2014,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2074,19 +2074,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2094,19 +2094,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2114,19 +2114,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2134,19 +2134,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2154,19 +2154,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2174,19 +2174,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2194,19 +2194,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2214,19 +2214,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2234,19 +2234,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2274,19 +2274,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2294,19 +2294,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2334,19 +2334,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2354,19 +2354,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2374,19 +2374,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2394,19 +2394,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2414,19 +2414,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2434,19 +2434,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2454,19 +2454,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2474,19 +2474,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2494,19 +2494,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2514,19 +2514,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2534,19 +2534,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2554,19 +2554,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2574,19 +2574,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2594,19 +2594,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2614,19 +2614,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2634,19 +2634,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2654,19 +2654,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2694,19 +2694,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2714,19 +2714,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2734,19 +2734,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2754,19 +2754,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2794,19 +2794,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2814,19 +2814,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2834,19 +2834,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2854,19 +2854,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2874,19 +2874,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2894,19 +2894,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2914,19 +2914,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2934,19 +2934,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2954,19 +2954,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2974,19 +2974,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2994,19 +2994,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3014,19 +3014,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3034,19 +3034,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3054,19 +3054,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3074,19 +3074,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3094,19 +3094,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3114,19 +3114,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3134,19 +3134,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3154,19 +3154,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3174,19 +3174,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3194,19 +3194,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3214,19 +3214,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3254,19 +3254,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3274,19 +3274,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3294,19 +3294,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3314,19 +3314,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3334,19 +3334,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3354,19 +3354,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3394,19 +3394,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3434,19 +3434,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3454,19 +3454,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3474,19 +3474,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -3494,19 +3494,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3514,19 +3514,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3534,19 +3534,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -3554,19 +3554,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3574,19 +3574,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3594,19 +3594,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -3614,19 +3614,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="E118" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3634,19 +3634,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D119" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3654,19 +3654,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3674,19 +3674,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D121" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="E122" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3714,19 +3714,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3734,19 +3734,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D124" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3754,19 +3754,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D125" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="E125" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3774,19 +3774,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D126" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3794,19 +3794,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="E127" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -3814,19 +3814,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -3834,19 +3834,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3854,19 +3854,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D130" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3874,19 +3874,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D131" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3894,19 +3894,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3914,19 +3914,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D133" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E133" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3934,19 +3934,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3954,19 +3954,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -3974,19 +3974,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D136" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -3994,19 +3994,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="D137" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -4014,19 +4014,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D138" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4034,19 +4034,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D139" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -4054,19 +4054,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D140" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -4074,19 +4074,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C141" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -4094,19 +4094,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -4114,19 +4114,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D143" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -4134,19 +4134,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4154,19 +4154,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C145" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D145" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4174,19 +4174,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C146" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4194,19 +4194,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4214,19 +4214,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D148" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -4234,19 +4234,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D149" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -4254,19 +4254,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D150" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4274,19 +4274,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D151" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4294,19 +4294,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
+        <v>282</v>
+      </c>
+      <c r="D152" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" t="s">
         <v>270</v>
-      </c>
-      <c r="D152" t="s">
-        <v>271</v>
-      </c>
-      <c r="E152" t="s">
-        <v>97</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -4314,19 +4314,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C153" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="E153" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4334,19 +4334,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C154" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="E154" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4354,19 +4354,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C155" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4374,19 +4374,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="E156" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4394,19 +4394,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C157" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4414,19 +4414,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C158" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D158" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="E158" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4434,19 +4434,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C159" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D159" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4454,19 +4454,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C160" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D160" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4474,19 +4474,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C161" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4494,19 +4494,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C162" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="E162" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4514,19 +4514,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D163" t="s">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="E163" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F163">
         <v>1</v>
